--- a/biology/Biologie cellulaire et moléculaire/Imagerie_moléculaire/Imagerie_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Imagerie_moléculaire/Imagerie_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imagerie moléculaire est le nom donné à une discipline émergente d'imagerie, située entre la biologie moléculaire et la biologie cellulaire.
 Elle vise essentiellement à observer le fonctionnement des organes et organismes in vivo par des moyens les moins invasifs possibles ou perturbant le moins possible les organismes observés ou les cultures de tissus produites à partir de ces organismes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bases de cette discipline récente proviennent surtout des savoirs et savoir-faire acquis au cours des progrès récents de l'imagerie de fluorescence (encore non-transférable à l'être humain, car nécessitant une modification génétique des cellules pour leur faire produire des protéines fluorescentes), de la tomographie et de l'informatique appliquée au traitement d'image.
 Il peut s'agir d'image fixe, de reconstitution 3D, d'images animées...
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'imagerie moléculaire regroupe des techniques d'imagerie ou des associations de différentes techniques permettant de visualiser, in vivo :
 le fonctionnement cellulaire ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces techniques permettent de 
 rendre visibles in vivo certaines macromolécules, des protéines ou de l'ADN ou d'autres molécules d'intérêt (via des marqueurs spécialisés) ;
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Qualité et précision des images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pour chaque méthode, la qualité et finesse de l'image dépendent de nombreux facteurs, dont :
 imagerie de surface, ou de profondeur ;
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Incertitudes et limites</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ces méthodes soient dites non-invasives, et qu'elles constituent un progrès remarquable dans l'imagerie, il reste parfois difficile d'être certain que le comportement de l'organisme ne soit pas modifié par les traceurs, ou les moyens d'investigation (ultra-sons, rayons X, radioactivité pour la TEMP et TEP) ou l'importance du champ électromagnétique généré par un scanner. L'intercalibration des matériels et la comparaison de résultats provenant de techniques différentes pourra peut-être d'ailleurs aider à identifier la manière dont ces contraintes affectent ou non l'organisme, et à quelles échelles.
 </t>
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,13 +705,15 @@
           <t>Prospective</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>On s'attend à des diminutions de coûts par rapport à l'amélioration de précisions.
 Les progrès de l'informatique, de l'amplification lumineuse, des capteurs, et des calculateurs devraient permettre une imagerie en temps réel, une automatisation de certains processus complexes de l'imagerie, de détection d'anomalies ou de pathologies.
 Des « progrès » sont également attendus côté marqueurs, avec des nanomarqueurs fluorescents (nanocristaux de semiconducteurs), qui cependant pourraient poser des problèmes de toxicité.
 L'utilisation combinée de plusieurs modes d'imagerie devrait permettre de par exemple produire des images mieux corrigées (pour la diffusion du rayonnement dans les tissus, le bruit, etc.) et éventuellement en 3D et animées, et de bien meilleure qualité encore, avec une méta-information enrichie pour chaque pixel de l'image : à chaque pixel peuvent être associées des informations de température, nature moléculaire, état, etc.
-La microscopie à fluorescence devrait encore progresser, notamment pour l'observation de surfaces : peau, muqueuses, surfaces d'organes creux observées par lentilles de microscopes transportés par endoscope à l'intérieur même du corps, etc. De nouveaux marqueurs fluorescents sont recherchés dans les longueurs d'onde situées entre le proche infrarouge et le rouge profond (car ces longueurs d'onde, comprises entre 650 et 900 nm, correspondent à la circulation maximale de la lumière dans un organisme riche en eau et en hémoglobine)[1] et c'est à ces longueurs d'onde que les tissus humains sont eux-mêmes les moins naturellement fluorescents[2] (ce qui diminue le « bruit de fond » qui sinon parasite l'image).
+La microscopie à fluorescence devrait encore progresser, notamment pour l'observation de surfaces : peau, muqueuses, surfaces d'organes creux observées par lentilles de microscopes transportés par endoscope à l'intérieur même du corps, etc. De nouveaux marqueurs fluorescents sont recherchés dans les longueurs d'onde situées entre le proche infrarouge et le rouge profond (car ces longueurs d'onde, comprises entre 650 et 900 nm, correspondent à la circulation maximale de la lumière dans un organisme riche en eau et en hémoglobine) et c'est à ces longueurs d'onde que les tissus humains sont eux-mêmes les moins naturellement fluorescents (ce qui diminue le « bruit de fond » qui sinon parasite l'image).
 Le laser et de nouveaux types de lentilles « intelligentes » pourront peut-être permettre de miniaturiser certains « imageurs » sans perte de qualité.
 L'intelligence artificielle appliquée à l'imagerie pourrait améliorer tant la qualité de l'image, que la qualité du diagnostic ou de l'information qu'elle permet.</t>
         </is>
@@ -701,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Imagerie_mol%C3%A9culaire</t>
+          <t>Imagerie_moléculaire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,9 +743,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un master européen[3] a été créé sur la base du réseau d’excellence EMIL (European Molecular Imaging Laboratories), fédérant depuis 2004 59 établissements de recherche (publique et privée).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un master européen a été créé sur la base du réseau d’excellence EMIL (European Molecular Imaging Laboratories), fédérant depuis 2004 59 établissements de recherche (publique et privée).
 </t>
         </is>
       </c>
